--- a/tests/data/output/一级测试用例-08001_result.xlsx
+++ b/tests/data/output/一级测试用例-08001_result.xlsx
@@ -179,46 +179,46 @@
     <t>true</t>
   </si>
   <si>
-    <t>{"user_name":"韩刚","id_card_no":"540123195204140821","phone":"13521585318"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"朱欢","id_card_no":"652701194208293689","phone":"18974827873"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"赵玉华","id_card_no":"210321194308129085","phone":"18168645025"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"翁彬","id_card_no":"420684196805081166","phone":"15067210805"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"赵淑珍","id_card_no":"350301194512197822","phone":"15574874482"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"童瑞","id_card_no":"430603197704172171","phone":"15834716349"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"许佳","id_card_no":"540124199303042359","phone":"14537336950"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"翟兰英","id_card_no":"511622196407034464","phone":"13121008477"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"李玉兰","id_card_no":"62072219531108522X","phone":"13098915156"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"王桂英","id_card_no":"520326198002211804","phone":"15777455118"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"李建国","id_card_no":"350305194108170076","phone":"15300063036"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"梅桂珍","id_card_no":"45022419570918634X","phone":"18266311793"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"周玉梅","id_card_no":"341322195911267387","phone":"18586692910"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"任玉华","id_card_no":"310200197804106237","phone":"18150633469"}</t>
+    <t>{"user_name":"李彬","id_card_no":"230722193309106966","phone":"14724022470"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"姚小红","id_card_no":"533325194712022952","phone":"15965229328"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"金成","id_card_no":"140106198607302453","phone":"18547525887"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"李秀芳","id_card_no":"360201195710284549","phone":"14766454148"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"蒋刚","id_card_no":"53232619900328662X","phone":"18943518594"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"杭玉英","id_card_no":"654200194201155732","phone":"15511062224"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"刘桂芝","id_card_no":"451422197010090676","phone":"18089211074"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"苏婷","id_card_no":"411724199004302573","phone":"18060930115"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"陈秀芳","id_card_no":"522300193901025322","phone":"18876921422"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"游冬梅","id_card_no":"610602197706019610","phone":"18728474556"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"刘杨","id_card_no":"460204197801149117","phone":"13259159533"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"王雪","id_card_no":"150928194108167168","phone":"13317638535"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"吕秀兰","id_card_no":"630223193003219291","phone":"18583647204"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"鞠玉华","id_card_no":"510901196111032957","phone":"13172318893"}</t>
   </si>
 </sst>
 </file>

--- a/tests/data/output/一级测试用例-08001_result.xlsx
+++ b/tests/data/output/一级测试用例-08001_result.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>{"user_name":"禹淑英","id_card_no":"500110193307098269","phone":"13288130343"}</t>
+          <t>{"user_name":"陶宁","id_card_no":"130303199903216634","phone":"14534868174"}</t>
         </is>
       </c>
     </row>
@@ -528,7 +528,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>{"user_name":"於秀荣","id_card_no":"331124199605261014","phone":"15747630957"}</t>
+          <t>{"user_name":"雍坤","id_card_no":"510801195812019739","phone":"18082993511"}</t>
         </is>
       </c>
     </row>
@@ -580,7 +580,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>{"user_name":"勾峰","id_card_no":"411726193704012281","phone":"14552314495"}</t>
+          <t>{"user_name":"温荣","id_card_no":"460106200008026965","phone":"13239294841"}</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>{"user_name":"水杰","id_card_no":"411426196710254321","phone":"13840650433"}</t>
+          <t>{"user_name":"简敏","id_card_no":"131025194606134640","phone":"18503283968"}</t>
         </is>
       </c>
     </row>
@@ -684,7 +684,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>{"user_name":"符峰","id_card_no":"621200195412312298","phone":"14577767366"}</t>
+          <t>{"user_name":"邴淑华","id_card_no":"653101199301167688","phone":"15226036623"}</t>
         </is>
       </c>
     </row>
@@ -736,7 +736,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>{"user_name":"邴淑英","id_card_no":"450109194606299196","phone":"14551171052"}</t>
+          <t>{"user_name":"边林","id_card_no":"360735192908010380","phone":"13192141686"}</t>
         </is>
       </c>
     </row>
@@ -788,7 +788,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>{"user_name":"支伟","id_card_no":"510400193301254000","phone":"15318279853"}</t>
+          <t>{"user_name":"尤彬","id_card_no":"411330198203202090","phone":"15994608559"}</t>
         </is>
       </c>
     </row>
@@ -840,7 +840,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>{"user_name":"康洁","id_card_no":"141030193303224575","phone":"13637876667"}</t>
+          <t>{"user_name":"艾璐","id_card_no":"231083198307301758","phone":"13307150997"}</t>
         </is>
       </c>
     </row>
@@ -892,7 +892,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>{"user_name":"黄俊","id_card_no":"120115196812240590","phone":"13402246191"}</t>
+          <t>{"user_name":"郭浩","id_card_no":"420112193411090833","phone":"13180183050"}</t>
         </is>
       </c>
     </row>
@@ -944,7 +944,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>{"user_name":"阳秀英","id_card_no":"360700194706197529","phone":"18978976513"}</t>
+          <t>{"user_name":"海俊","id_card_no":"440114194410185137","phone":"18753528100"}</t>
         </is>
       </c>
     </row>
@@ -996,7 +996,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>{"user_name":"吕强","id_card_no":"430902196008219840","phone":"13942285582"}</t>
+          <t>{"user_name":"云玉兰","id_card_no":"330303193809126528","phone":"15323479142"}</t>
         </is>
       </c>
     </row>
@@ -1048,7 +1048,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>{"user_name":"谷小红","id_card_no":"420101197203203716","phone":"13054388732"}</t>
+          <t>{"user_name":"万斌","id_card_no":"652700199305147006","phone":"13731134409"}</t>
         </is>
       </c>
     </row>
@@ -1100,7 +1100,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>{"user_name":"暨玉华","id_card_no":"41040019370911434X","phone":"15939762572"}</t>
+          <t>{"user_name":"郏峰","id_card_no":"210421199410130283","phone":"15359404966"}</t>
         </is>
       </c>
     </row>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>{"user_name":"颛飞","id_card_no":"422825195703150536","phone":"13123267532"}</t>
+          <t>{"user_name":"甘秀荣","id_card_no":"623000197901190885","phone":"14783444207"}</t>
         </is>
       </c>
     </row>

--- a/tests/data/output/一级测试用例-08001_result.xlsx
+++ b/tests/data/output/一级测试用例-08001_result.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>{"user_name":"陶宁","id_card_no":"130303199903216634","phone":"14534868174"}</t>
+          <t>{"user_name":"家磊","id_card_no":"510821194607020117","phone":"15589231855"}</t>
         </is>
       </c>
     </row>
@@ -528,7 +528,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>{"user_name":"雍坤","id_card_no":"510801195812019739","phone":"18082993511"}</t>
+          <t>{"user_name":"后秀梅","id_card_no":"120103196110058713","phone":"13176341816"}</t>
         </is>
       </c>
     </row>
@@ -580,7 +580,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>{"user_name":"温荣","id_card_no":"460106200008026965","phone":"13239294841"}</t>
+          <t>{"user_name":"阮婷","id_card_no":"140624196608276569","phone":"15629126085"}</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>{"user_name":"简敏","id_card_no":"131025194606134640","phone":"18503283968"}</t>
+          <t>{"user_name":"南浩","id_card_no":"420802196608297300","phone":"15228935258"}</t>
         </is>
       </c>
     </row>
@@ -684,7 +684,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>{"user_name":"邴淑华","id_card_no":"653101199301167688","phone":"15226036623"}</t>
+          <t>{"user_name":"童秀梅","id_card_no":"540226195209174435","phone":"14746485313"}</t>
         </is>
       </c>
     </row>
@@ -736,7 +736,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>{"user_name":"边林","id_card_no":"360735192908010380","phone":"13192141686"}</t>
+          <t>{"user_name":"文丽","id_card_no":"34060119420424680X","phone":"15560752989"}</t>
         </is>
       </c>
     </row>
@@ -788,7 +788,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>{"user_name":"尤彬","id_card_no":"411330198203202090","phone":"15994608559"}</t>
+          <t>{"user_name":"广军","id_card_no":"511901196709236330","phone":"13696232604"}</t>
         </is>
       </c>
     </row>
@@ -840,7 +840,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>{"user_name":"艾璐","id_card_no":"231083198307301758","phone":"13307150997"}</t>
+          <t>{"user_name":"詹丹","id_card_no":"445201194207239839","phone":"15656388716"}</t>
         </is>
       </c>
     </row>
@@ -892,7 +892,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>{"user_name":"郭浩","id_card_no":"420112193411090833","phone":"13180183050"}</t>
+          <t>{"user_name":"燕红霞","id_card_no":"511900193303263283","phone":"18807546822"}</t>
         </is>
       </c>
     </row>
@@ -944,7 +944,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>{"user_name":"海俊","id_card_no":"440114194410185137","phone":"18753528100"}</t>
+          <t>{"user_name":"郁瑜","id_card_no":"440304194111226558","phone":"13253109671"}</t>
         </is>
       </c>
     </row>
@@ -996,7 +996,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>{"user_name":"云玉兰","id_card_no":"330303193809126528","phone":"15323479142"}</t>
+          <t>{"user_name":"邴秀梅","id_card_no":"360482196012019098","phone":"15225097054"}</t>
         </is>
       </c>
     </row>
@@ -1048,7 +1048,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>{"user_name":"万斌","id_card_no":"652700199305147006","phone":"13731134409"}</t>
+          <t>{"user_name":"索桂芳","id_card_no":"360622193203046364","phone":"13153080722"}</t>
         </is>
       </c>
     </row>
@@ -1100,7 +1100,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>{"user_name":"郏峰","id_card_no":"210421199410130283","phone":"15359404966"}</t>
+          <t>{"user_name":"邬飞","id_card_no":"420202198308225547","phone":"18646849480"}</t>
         </is>
       </c>
     </row>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>{"user_name":"甘秀荣","id_card_no":"623000197901190885","phone":"14783444207"}</t>
+          <t>{"user_name":"后梅","id_card_no":"520524195908143873","phone":"15171140974"}</t>
         </is>
       </c>
     </row>

--- a/tests/data/output/一级测试用例-08001_result.xlsx
+++ b/tests/data/output/一级测试用例-08001_result.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>{"user_name":"家磊","id_card_no":"510821194607020117","phone":"15589231855"}</t>
+          <t>{"user_name":"易琴","id_card_no":"460203199108122162","phone":"18523086181"}</t>
         </is>
       </c>
     </row>
@@ -528,7 +528,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>{"user_name":"后秀梅","id_card_no":"120103196110058713","phone":"13176341816"}</t>
+          <t>{"user_name":"羊健","id_card_no":"220104197206213268","phone":"15986072196"}</t>
         </is>
       </c>
     </row>
@@ -580,7 +580,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>{"user_name":"阮婷","id_card_no":"140624196608276569","phone":"15629126085"}</t>
+          <t>{"user_name":"雷娟","id_card_no":"411300197909021352","phone":"18543212888"}</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>{"user_name":"南浩","id_card_no":"420802196608297300","phone":"15228935258"}</t>
+          <t>{"user_name":"羊斌","id_card_no":"450312195203294896","phone":"13668579081"}</t>
         </is>
       </c>
     </row>
@@ -684,7 +684,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>{"user_name":"童秀梅","id_card_no":"540226195209174435","phone":"14746485313"}</t>
+          <t>{"user_name":"丰涛","id_card_no":"652300193008213565","phone":"18952856014"}</t>
         </is>
       </c>
     </row>
@@ -736,7 +736,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>{"user_name":"文丽","id_card_no":"34060119420424680X","phone":"15560752989"}</t>
+          <t>{"user_name":"胡楠","id_card_no":"513424194210025446","phone":"13462753452"}</t>
         </is>
       </c>
     </row>
@@ -788,7 +788,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>{"user_name":"广军","id_card_no":"511901196709236330","phone":"13696232604"}</t>
+          <t>{"user_name":"粱超","id_card_no":"370801194703165824","phone":"14519055923"}</t>
         </is>
       </c>
     </row>
@@ -840,7 +840,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>{"user_name":"詹丹","id_card_no":"445201194207239839","phone":"15656388716"}</t>
+          <t>{"user_name":"申娜","id_card_no":"32061219430205011X","phone":"15227856278"}</t>
         </is>
       </c>
     </row>
@@ -892,7 +892,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>{"user_name":"燕红霞","id_card_no":"511900193303263283","phone":"18807546822"}</t>
+          <t>{"user_name":"璩建军","id_card_no":"620502197204259530","phone":"13813673532"}</t>
         </is>
       </c>
     </row>
@@ -944,7 +944,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>{"user_name":"郁瑜","id_card_no":"440304194111226558","phone":"13253109671"}</t>
+          <t>{"user_name":"解霞","id_card_no":"440600195906095956","phone":"13430404984"}</t>
         </is>
       </c>
     </row>
@@ -996,7 +996,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>{"user_name":"邴秀梅","id_card_no":"360482196012019098","phone":"15225097054"}</t>
+          <t>{"user_name":"殷桂英","id_card_no":"430423194405152614","phone":"15330875602"}</t>
         </is>
       </c>
     </row>
@@ -1048,7 +1048,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>{"user_name":"索桂芳","id_card_no":"360622193203046364","phone":"13153080722"}</t>
+          <t>{"user_name":"关雪梅","id_card_no":"511025198909222874","phone":"18798991271"}</t>
         </is>
       </c>
     </row>
@@ -1100,7 +1100,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>{"user_name":"邬飞","id_card_no":"420202198308225547","phone":"18646849480"}</t>
+          <t>{"user_name":"姬建国","id_card_no":"440701196403155941","phone":"13613092121"}</t>
         </is>
       </c>
     </row>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>{"user_name":"后梅","id_card_no":"520524195908143873","phone":"15171140974"}</t>
+          <t>{"user_name":"葛冬梅","id_card_no":"341700197211129103","phone":"13619168404"}</t>
         </is>
       </c>
     </row>

--- a/tests/data/output/一级测试用例-08001_result.xlsx
+++ b/tests/data/output/一级测试用例-08001_result.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>{"user_name":"易琴","id_card_no":"460203199108122162","phone":"18523086181"}</t>
+          <t>{"user_name":"段旭","id_card_no":"445200194812045972","phone":"15909790435"}</t>
         </is>
       </c>
     </row>
@@ -528,7 +528,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>{"user_name":"羊健","id_card_no":"220104197206213268","phone":"15986072196"}</t>
+          <t>{"user_name":"都春梅","id_card_no":"150104194012044660","phone":"13804618437"}</t>
         </is>
       </c>
     </row>
@@ -580,7 +580,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>{"user_name":"雷娟","id_card_no":"411300197909021352","phone":"18543212888"}</t>
+          <t>{"user_name":"缑建华","id_card_no":"421003197607043577","phone":"13540063656"}</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>{"user_name":"羊斌","id_card_no":"450312195203294896","phone":"13668579081"}</t>
+          <t>{"user_name":"牛斌","id_card_no":"469007198109106162","phone":"13674580014"}</t>
         </is>
       </c>
     </row>
@@ -684,7 +684,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>{"user_name":"丰涛","id_card_no":"652300193008213565","phone":"18952856014"}</t>
+          <t>{"user_name":"刁龙","id_card_no":"610115197107301774","phone":"18817753231"}</t>
         </is>
       </c>
     </row>
@@ -736,7 +736,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>{"user_name":"胡楠","id_card_no":"513424194210025446","phone":"13462753452"}</t>
+          <t>{"user_name":"东波","id_card_no":"54242519870915334X","phone":"18141886943"}</t>
         </is>
       </c>
     </row>
@@ -788,7 +788,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>{"user_name":"粱超","id_card_no":"370801194703165824","phone":"14519055923"}</t>
+          <t>{"user_name":"亓鹏","id_card_no":"130303195312047391","phone":"18687172406"}</t>
         </is>
       </c>
     </row>
@@ -840,7 +840,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>{"user_name":"申娜","id_card_no":"32061219430205011X","phone":"15227856278"}</t>
+          <t>{"user_name":"沃鑫","id_card_no":"421083196206212349","phone":"18273822060"}</t>
         </is>
       </c>
     </row>
@@ -892,7 +892,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>{"user_name":"璩建军","id_card_no":"620502197204259530","phone":"13813673532"}</t>
+          <t>{"user_name":"却涛","id_card_no":"360721195712218329","phone":"13866630666"}</t>
         </is>
       </c>
     </row>
@@ -944,7 +944,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>{"user_name":"解霞","id_card_no":"440600195906095956","phone":"13430404984"}</t>
+          <t>{"user_name":"粱婷","id_card_no":"411525199111113060","phone":"15766937966"}</t>
         </is>
       </c>
     </row>
@@ -996,7 +996,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>{"user_name":"殷桂英","id_card_no":"430423194405152614","phone":"15330875602"}</t>
+          <t>{"user_name":"车婷","id_card_no":"150105199603073948","phone":"15308107923"}</t>
         </is>
       </c>
     </row>
@@ -1048,7 +1048,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>{"user_name":"关雪梅","id_card_no":"511025198909222874","phone":"18798991271"}</t>
+          <t>{"user_name":"纪刚","id_card_no":"320104199007113662","phone":"15106445462"}</t>
         </is>
       </c>
     </row>
@@ -1100,7 +1100,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>{"user_name":"姬建国","id_card_no":"440701196403155941","phone":"13613092121"}</t>
+          <t>{"user_name":"荣莉","id_card_no":"350125199011200504","phone":"14595944651"}</t>
         </is>
       </c>
     </row>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>{"user_name":"葛冬梅","id_card_no":"341700197211129103","phone":"13619168404"}</t>
+          <t>{"user_name":"邵冬梅","id_card_no":"210403197105237541","phone":"15079517790"}</t>
         </is>
       </c>
     </row>

--- a/tests/data/output/一级测试用例-08001_result.xlsx
+++ b/tests/data/output/一级测试用例-08001_result.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>{"user_name":"段旭","id_card_no":"445200194812045972","phone":"15909790435"}</t>
+          <t>{"user_name":"佟洋","id_card_no":"450107196401315398","phone":"15346246716"}</t>
         </is>
       </c>
     </row>
@@ -528,7 +528,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>{"user_name":"都春梅","id_card_no":"150104194012044660","phone":"13804618437"}</t>
+          <t>{"user_name":"盛桂珍","id_card_no":"430408194908220574","phone":"18832695236"}</t>
         </is>
       </c>
     </row>
@@ -580,7 +580,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>{"user_name":"缑建华","id_card_no":"421003197607043577","phone":"13540063656"}</t>
+          <t>{"user_name":"劳兰英","id_card_no":"511723194107310319","phone":"15036459639"}</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>{"user_name":"牛斌","id_card_no":"469007198109106162","phone":"13674580014"}</t>
+          <t>{"user_name":"太欣","id_card_no":"150724198410268594","phone":"15362666735"}</t>
         </is>
       </c>
     </row>
@@ -684,7 +684,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>{"user_name":"刁龙","id_card_no":"610115197107301774","phone":"18817753231"}</t>
+          <t>{"user_name":"酆小红","id_card_no":"520329197411026073","phone":"18785598608"}</t>
         </is>
       </c>
     </row>
@@ -736,7 +736,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>{"user_name":"东波","id_card_no":"54242519870915334X","phone":"18141886943"}</t>
+          <t>{"user_name":"殴璐","id_card_no":"370300192912140970","phone":"15713607258"}</t>
         </is>
       </c>
     </row>
@@ -788,7 +788,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>{"user_name":"亓鹏","id_card_no":"130303195312047391","phone":"18687172406"}</t>
+          <t>{"user_name":"邴阳","id_card_no":"330200194703315494","phone":"18999962294"}</t>
         </is>
       </c>
     </row>
@@ -840,7 +840,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>{"user_name":"沃鑫","id_card_no":"421083196206212349","phone":"18273822060"}</t>
+          <t>{"user_name":"融勇","id_card_no":"511101195009146985","phone":"18244484180"}</t>
         </is>
       </c>
     </row>
@@ -892,7 +892,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>{"user_name":"却涛","id_card_no":"360721195712218329","phone":"13866630666"}</t>
+          <t>{"user_name":"谈淑华","id_card_no":"330503195111254456","phone":"18275470617"}</t>
         </is>
       </c>
     </row>
@@ -944,7 +944,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>{"user_name":"粱婷","id_card_no":"411525199111113060","phone":"15766937966"}</t>
+          <t>{"user_name":"于雷","id_card_no":"610622198205100584","phone":"13197511917"}</t>
         </is>
       </c>
     </row>
@@ -996,7 +996,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>{"user_name":"车婷","id_card_no":"150105199603073948","phone":"15308107923"}</t>
+          <t>{"user_name":"袁淑珍","id_card_no":"530621199302083016","phone":"18144009090"}</t>
         </is>
       </c>
     </row>
@@ -1048,7 +1048,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>{"user_name":"纪刚","id_card_no":"320104199007113662","phone":"15106445462"}</t>
+          <t>{"user_name":"邢杨","id_card_no":"131124198411296209","phone":"18708004628"}</t>
         </is>
       </c>
     </row>
@@ -1100,7 +1100,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>{"user_name":"荣莉","id_card_no":"350125199011200504","phone":"14595944651"}</t>
+          <t>{"user_name":"范军","id_card_no":"513427196810311241","phone":"13581851348"}</t>
         </is>
       </c>
     </row>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>{"user_name":"邵冬梅","id_card_no":"210403197105237541","phone":"15079517790"}</t>
+          <t>{"user_name":"益勇","id_card_no":"431102198906016224","phone":"18584441084"}</t>
         </is>
       </c>
     </row>

--- a/tests/data/output/一级测试用例-08001_result.xlsx
+++ b/tests/data/output/一级测试用例-08001_result.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>{"user_name":"佟洋","id_card_no":"450107196401315398","phone":"15346246716"}</t>
+          <t>{"user_name":"郁瑜","id_card_no":"141101198110315709","phone":"18889813369"}</t>
         </is>
       </c>
     </row>
@@ -528,7 +528,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>{"user_name":"盛桂珍","id_card_no":"430408194908220574","phone":"18832695236"}</t>
+          <t>{"user_name":"仲博","id_card_no":"361102194510022269","phone":"13399303627"}</t>
         </is>
       </c>
     </row>
@@ -580,7 +580,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>{"user_name":"劳兰英","id_card_no":"511723194107310319","phone":"15036459639"}</t>
+          <t>{"user_name":"闾磊","id_card_no":"630102194204237266","phone":"15115639296"}</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>{"user_name":"太欣","id_card_no":"150724198410268594","phone":"15362666735"}</t>
+          <t>{"user_name":"奚红霞","id_card_no":"81000019560414072X","phone":"13327446872"}</t>
         </is>
       </c>
     </row>
@@ -684,7 +684,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>{"user_name":"酆小红","id_card_no":"520329197411026073","phone":"18785598608"}</t>
+          <t>{"user_name":"殳秀云","id_card_no":"430903199501279257","phone":"15009956866"}</t>
         </is>
       </c>
     </row>
@@ -736,7 +736,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>{"user_name":"殴璐","id_card_no":"370300192912140970","phone":"15713607258"}</t>
+          <t>{"user_name":"宿婷","id_card_no":"420526196111272233","phone":"15837847136"}</t>
         </is>
       </c>
     </row>
@@ -788,7 +788,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>{"user_name":"邴阳","id_card_no":"330200194703315494","phone":"18999962294"}</t>
+          <t>{"user_name":"乔飞","id_card_no":"140109198605162636","phone":"14717756735"}</t>
         </is>
       </c>
     </row>
@@ -840,7 +840,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>{"user_name":"融勇","id_card_no":"511101195009146985","phone":"18244484180"}</t>
+          <t>{"user_name":"全帅","id_card_no":"130800199609180720","phone":"18052589874"}</t>
         </is>
       </c>
     </row>
@@ -892,7 +892,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>{"user_name":"谈淑华","id_card_no":"330503195111254456","phone":"18275470617"}</t>
+          <t>{"user_name":"濮坤","id_card_no":"210303193504199171","phone":"15339828455"}</t>
         </is>
       </c>
     </row>
@@ -944,7 +944,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>{"user_name":"于雷","id_card_no":"610622198205100584","phone":"13197511917"}</t>
+          <t>{"user_name":"花超","id_card_no":"440606194809169275","phone":"18163591319"}</t>
         </is>
       </c>
     </row>
@@ -996,7 +996,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>{"user_name":"袁淑珍","id_card_no":"530621199302083016","phone":"18144009090"}</t>
+          <t>{"user_name":"栾斌","id_card_no":"371722199611097131","phone":"18842077923"}</t>
         </is>
       </c>
     </row>
@@ -1048,7 +1048,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>{"user_name":"邢杨","id_card_no":"131124198411296209","phone":"18708004628"}</t>
+          <t>{"user_name":"强秀荣","id_card_no":"371526196505222913","phone":"13286122068"}</t>
         </is>
       </c>
     </row>
@@ -1100,7 +1100,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>{"user_name":"范军","id_card_no":"513427196810311241","phone":"13581851348"}</t>
+          <t>{"user_name":"罗波","id_card_no":"540102195510032472","phone":"18693431496"}</t>
         </is>
       </c>
     </row>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>{"user_name":"益勇","id_card_no":"431102198906016224","phone":"18584441084"}</t>
+          <t>{"user_name":"强亮","id_card_no":"220802197805228766","phone":"18129167212"}</t>
         </is>
       </c>
     </row>
